--- a/data/case1/9/P2_1.xlsx
+++ b/data/case1/9/P2_1.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.36082032051092483</v>
+        <v>0.41859767129913905</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.00999999947102026</v>
+        <v>-0.0099999995773742967</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.008999999463746633</v>
+        <v>-0.0089999995688749834</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.011999999857852828</v>
+        <v>-0.011999999884139356</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999994741737339</v>
+        <v>-0.0059999995735227074</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999994613022523</v>
+        <v>-0.0059999995592754374</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.074100586592958706</v>
+        <v>-0.01999999947931741</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.016258311340025422</v>
+        <v>-0.019999999474427099</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.005999999445296389</v>
+        <v>-0.0059999995472459489</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999994372361698</v>
+        <v>-0.021640351272147029</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999994475105609</v>
+        <v>-0.0044999995513315127</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999994344259733</v>
+        <v>-0.0059999995423325458</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999994260309109</v>
+        <v>-0.0059999995403954287</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999379701087</v>
+        <v>-0.011999999506512538</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999994214399166</v>
+        <v>0.024706585654678648</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999994195625295</v>
+        <v>-0.0059999995388393401</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999994171544557</v>
+        <v>-0.0059999995369652837</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999993947280643</v>
+        <v>-0.0089999995197080906</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999994765599389</v>
+        <v>-0.0089999995817171552</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999994593128463</v>
+        <v>-0.0089999995674219235</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.073809350852675593</v>
+        <v>-0.076844990078834385</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999994549891937</v>
+        <v>-0.008999999563889638</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999994589593513</v>
+        <v>-0.020254460833111665</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999999210069916</v>
+        <v>-0.041999999373325103</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999999205790672</v>
+        <v>-0.041999999369862095</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999994589148287</v>
+        <v>-0.0059999995581669907</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.00599999945558638</v>
+        <v>-0.0059999995567370235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.017706680636973005</v>
+        <v>-0.0059999995512720616</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999391447247</v>
+        <v>-0.011999999514037185</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999329226359</v>
+        <v>-0.019999999467686269</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999360115979</v>
+        <v>-0.01499999949428954</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999315453266</v>
+        <v>-0.020999999460853402</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999994244801513</v>
+        <v>0.022235973211565785</v>
       </c>
     </row>
   </sheetData>
